--- a/public/format/harga-supplier.xlsx
+++ b/public/format/harga-supplier.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Office 5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Office 5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287EBE7F-58DB-425F-8C0E-FC4C8DD5EAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A8E91AA-CEEB-4A52-B1DE-253D4A2B3792}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Office 5</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AB9FE14F-5548-45B0-B89A-56149E1A3AAF}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,10 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Diskon harus berformat general, jangan persent, lalu haru 3 angka dibelakang koma (0,254)</t>
+Diskon harus berformat general, jangan persent.
+Contoh : 
+30% jadinya 30
+30%+40% jadi 30+40</t>
         </r>
       </text>
     </comment>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E5AB74-13AB-4289-AC7F-B453A16B8BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
